--- a/Unit testing.xlsx
+++ b/Unit testing.xlsx
@@ -11,8 +11,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,12 +359,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Unit testing.xlsx
+++ b/Unit testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>aa</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>dd</t>
+  </si>
+  <si>
+    <t>ee</t>
   </si>
 </sst>
 </file>
@@ -359,32 +362,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="D4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Unit testing.xlsx
+++ b/Unit testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>aa</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>ee</t>
+  </si>
+  <si>
+    <t>gf</t>
+  </si>
+  <si>
+    <t>gg</t>
   </si>
 </sst>
 </file>
@@ -362,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -393,6 +399,21 @@
     <row r="5" spans="1:5">
       <c r="E5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
